--- a/data/0. old data/0. raw/2016/companies/csl.xlsx
+++ b/data/0. old data/0. raw/2016/companies/csl.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="cslbehring" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="aggregated" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="cslbehring" sheetId="1" r:id="rId1"/>
+    <sheet name="aggregated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,58 +25,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="199">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donations_grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sponsorship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registration_fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_accomodation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">related_expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>uci</t>
+  </si>
+  <si>
+    <t>donations_grants</t>
+  </si>
+  <si>
+    <t>sponsorship</t>
+  </si>
+  <si>
+    <t>registration_fees</t>
+  </si>
+  <si>
+    <t>travel_accomodation</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>related_expenses</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t xml:space="preserve">Heizmann, Marc </t>
   </si>
   <si>
-    <t xml:space="preserve">Aarau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonsspital Aarau, Tellstrasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcp</t>
+    <t>Aarau</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Kantonsspital Aarau, Tellstrasse</t>
+  </si>
+  <si>
+    <t>hcp</t>
   </si>
   <si>
     <t xml:space="preserve">Bernasconi, Luca </t>
@@ -83,10 +85,10 @@
     <t xml:space="preserve">Scherr, Andreas </t>
   </si>
   <si>
-    <t xml:space="preserve">Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätsspital Basel, Petersgraben 4</t>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Universitätsspital Basel, Petersgraben 4</t>
   </si>
   <si>
     <t xml:space="preserve">Burgener, Anne-Valérie </t>
@@ -98,16 +100,16 @@
     <t xml:space="preserve">Kühne, Thomas </t>
   </si>
   <si>
-    <t xml:space="preserve">Universitäts-Kinderspital beider Basel, Spitalstrasse 33</t>
+    <t>Universitäts-Kinderspital beider Basel, Spitalstrasse 33</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Ott, Sebastian </t>
   </si>
   <si>
-    <t xml:space="preserve">Bern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inselspital, Freiburgstrasse</t>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Inselspital, Freiburgstrasse</t>
   </si>
   <si>
     <t xml:space="preserve">Pavlov, Nikolay </t>
@@ -128,10 +130,10 @@
     <t xml:space="preserve">Casini, Allessandro </t>
   </si>
   <si>
-    <t xml:space="preserve">Genève</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Rue Gabrielle-Perret-Gentil 4</t>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>Hôpitaux Universitaires de Genève (HUG), Rue Gabrielle-Perret-Gentil 4</t>
   </si>
   <si>
     <t xml:space="preserve">Boehlen, Françoise </t>
@@ -143,7 +145,7 @@
     <t xml:space="preserve">Seebach, Jörg </t>
   </si>
   <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Rue-Micheli-du-Crest 24</t>
+    <t>Hôpitaux Universitaires de Genève (HUG), Rue-Micheli-du-Crest 24</t>
   </si>
   <si>
     <t xml:space="preserve">Blanchard, Géraldine </t>
@@ -152,10 +154,10 @@
     <t xml:space="preserve">Brack, Thomas </t>
   </si>
   <si>
-    <t xml:space="preserve">Glarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonsspital Glarus, Burgstrasse 99</t>
+    <t>Glarus</t>
+  </si>
+  <si>
+    <t>Kantonsspital Glarus, Burgstrasse 99</t>
   </si>
   <si>
     <t xml:space="preserve">Muller, Yannik </t>
@@ -167,10 +169,10 @@
     <t xml:space="preserve">Conti, Francesca </t>
   </si>
   <si>
-    <t xml:space="preserve">Lausanne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre Hospitalier Universitaire Vaudois (CHUV), Rue du Bugnon 46</t>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Vaudois (CHUV), Rue du Bugnon 46</t>
   </si>
   <si>
     <t xml:space="preserve">Kuntzer, Thierry </t>
@@ -185,49 +187,49 @@
     <t xml:space="preserve">Rischewski, Johannes </t>
   </si>
   <si>
-    <t xml:space="preserve">Luzern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luzerner Kantonsspital, Spitalstrasse</t>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Luzerner Kantonsspital, Spitalstrasse</t>
   </si>
   <si>
     <t xml:space="preserve">Calderari, Gianluca </t>
   </si>
   <si>
-    <t xml:space="preserve">Lugano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corso Pestalozzi 11</t>
+    <t>Lugano</t>
+  </si>
+  <si>
+    <t>Corso Pestalozzi 11</t>
   </si>
   <si>
     <t xml:space="preserve">Colucci, Guiseppe </t>
   </si>
   <si>
-    <t xml:space="preserve">Clinica Luganese, Via Moncucco</t>
+    <t>Clinica Luganese, Via Moncucco</t>
   </si>
   <si>
     <t xml:space="preserve">Bergmann, Marcel </t>
   </si>
   <si>
-    <t xml:space="preserve">Mendrisio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Pediatrico del Mendrisiotto, Via Beroldingen 26</t>
+    <t>Mendrisio</t>
+  </si>
+  <si>
+    <t>Centro Pediatrico del Mendrisiotto, Via Beroldingen 26</t>
   </si>
   <si>
     <t xml:space="preserve">Ubieto, Hugo </t>
   </si>
   <si>
-    <t xml:space="preserve">St. Gallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostschweizer Kinderspital, Claudiusstrasse 6</t>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Ostschweizer Kinderspital, Claudiusstrasse 6</t>
   </si>
   <si>
     <t xml:space="preserve">Kahlert, Chrisitan </t>
   </si>
   <si>
-    <t xml:space="preserve">Kantonsspital St. Gallen, Rorschacherstrasse 95</t>
+    <t>Kantonsspital St. Gallen, Rorschacherstrasse 95</t>
   </si>
   <si>
     <t xml:space="preserve">Hengartner, Heinz </t>
@@ -236,28 +238,28 @@
     <t xml:space="preserve">Siler, Ulrich </t>
   </si>
   <si>
-    <t xml:space="preserve">Zürich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätsspital Zürich, August Forel Strasse 7</t>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Universitätsspital Zürich, August Forel Strasse 7</t>
   </si>
   <si>
     <t xml:space="preserve">Glatz, Martin </t>
   </si>
   <si>
-    <t xml:space="preserve">Universitätsspital Zürich, Gloriastrasse 31</t>
+    <t>Universitätsspital Zürich, Gloriastrasse 31</t>
   </si>
   <si>
     <t xml:space="preserve">Probst-Müller, Elisabeth </t>
   </si>
   <si>
-    <t xml:space="preserve">Universitätsspital Zürich, Gloriastrasse 23</t>
+    <t>Universitätsspital Zürich, Gloriastrasse 23</t>
   </si>
   <si>
     <t xml:space="preserve">Benden, Christian </t>
   </si>
   <si>
-    <t xml:space="preserve">Universitätsspital Zürich, Rämistrasse 100</t>
+    <t>Universitätsspital Zürich, Rämistrasse 100</t>
   </si>
   <si>
     <t xml:space="preserve">Kohler, Malcolm </t>
@@ -266,13 +268,13 @@
     <t xml:space="preserve">Steurer-Stey, Claudia </t>
   </si>
   <si>
-    <t xml:space="preserve">Universitätsspital Zürich, Institut für Hausarztmedizin</t>
+    <t>Universitätsspital Zürich, Institut für Hausarztmedizin</t>
   </si>
   <si>
     <t xml:space="preserve">Güngör, Tayfun </t>
   </si>
   <si>
-    <t xml:space="preserve">Universitätskinderspital Zürich, Steinwiesstrasse 75</t>
+    <t>Universitätskinderspital Zürich, Steinwiesstrasse 75</t>
   </si>
   <si>
     <t xml:space="preserve">Mauracher, Andrea </t>
@@ -281,376 +283,356 @@
     <t xml:space="preserve">Kronauer, Christoph </t>
   </si>
   <si>
-    <t xml:space="preserve">LungenZentrum Im Park, Kappelistrasse 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonsspital Aarau, Klinik für Kinder und Jugendliche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tellstrasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätsspital Basel, Frauenklinik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spitalstrasse 21</t>
+    <t>LungenZentrum Im Park, Kappelistrasse 7</t>
+  </si>
+  <si>
+    <t>Kantonsspital Aarau, Klinik für Kinder und Jugendliche</t>
+  </si>
+  <si>
+    <t>Tellstrasse</t>
+  </si>
+  <si>
+    <t>hco</t>
+  </si>
+  <si>
+    <t>Universitätsspital Basel, Frauenklinik</t>
+  </si>
+  <si>
+    <t>Spitalstrasse 21</t>
   </si>
   <si>
     <t xml:space="preserve">Universitätsspital Basel, Neurologische Klinik </t>
   </si>
   <si>
-    <t xml:space="preserve">Petersgraben 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universität Bern, Departement für Klinische Forschung, SCRM Plattform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murtenstrasse 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Basel,  Department of Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klingelbergstrasse 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Association of Obstetric Anaesthesia (SAOA) Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Neurologische Gesellschaft SNG Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Münsterberg 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Intensivmedizin SGI Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Oto-Rhino-Laryngologie, Hals- und Gesichtschirurgie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Federation of Clinical Neurosciences SFCNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inselspital, Universitätsklinik für Neurologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freiburgstrasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inselspital, Universitätsklinik für Hämatologie und Hämatologisches Zentrallabor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inselspital, Universitätsklinik für Rheumatologie, Immunologie und Allergologie (RIA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inselspital, Universitätsklinik für Anästhesiologie und Schmerztherapie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inselspital, Universitäres Notfallzentrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universität Bern, Institut für Pharmakologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universität Bern, Departement für Chemie und Biochemie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freienstrasse 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interregionale Blutspende SRK AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murtenstrasse 133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSASA Schweizerischer Verein der Amts- und Spitalapotheker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschäftsstelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Pneumologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chutzenstrasse 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Kardiologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dufourstrasse 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Herz- und thorakele Gefässchirurgie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Münstergasse 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizer Kinderkrebsregister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finkenhubelweg 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Cystische Fibrose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altenbergstrasse 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonsspital Graubünden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loestrasse 170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Pädiatrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fribourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postfach 1380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Pharmacie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rue Gabrielle-Perret-Gentil 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Service d'Anesthésiologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Service d'angiologie et d'hémostase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Service de Neurologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpitaux Universitaires de Genève (HUG), Service d'immunologie et d'allergologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupe des Pneumologues Genevois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rue Hugo de Senger 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenes International*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rue François-Versonnex 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre Hospitalier Universitaire Vaudois (CHUV), Service d'hématologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rue du Bugnon 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre Hospitalier Universitaire Vaudois (CHUV), Service d'Anesthésiologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre Hospitalier Universitaire Vaudois (CHUV), Service de pneumologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre Hospitalier Universitaire Vaudois (CHUV), Service d'immunologie et allergie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policlinique Médicale Universitaire, Pharmacie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rue du Bugnon 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coagulation Latine (COALAT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association FoROMe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av. Pierre-Decker 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luzerner Kantonsspital, Klinik für Anästhesie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spitalstrasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luzerner Kantonsspital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMACTi Associazione Medici Anestesisti Canton Ticino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via Tesserete 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurocentro della Svizzera Italiana NSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ospedale Regionale di Lugano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinica Luganese, Medicina interne e malattie infettive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via Mocucco 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Pediatrico del Mendrisiotto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via Beroldingen 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Hämatologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Münsingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innerer Geissenweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Neuropädiatrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oberentfelden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blumenweg 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medinorma Sarl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Rue 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonsspital St. Gallen, Klinik für Pneumologie und Schlafmedizin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rorschacherstrasse 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonspital St. Gallen, Muskelzentrum / ALS Klinik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rorschacherstrasse 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HICC GmbH, Zentrum für Labormedizin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frohbergstrasse 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediService AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuchwil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausserfeldweg 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätsspital Zürich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frauenklinikstrasse 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätsspital Zürich, Institut für Anästhesiologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rämistrasse 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätskinderspital Zürich, Department Anästhesie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steinwiesstrasse 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätskinderspital Zürich, Department Hämathologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätskinderspital Zürich, Eleonorenstiftung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitätskinderspital Zürich, Pediatric Emergency Medicine Switzerland (PEMS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Haemophilia Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csl</t>
+    <t>Petersgraben 4</t>
+  </si>
+  <si>
+    <t>Universität Bern, Departement für Klinische Forschung, SCRM Plattform</t>
+  </si>
+  <si>
+    <t>Murtenstrasse 40</t>
+  </si>
+  <si>
+    <t>University of Basel,  Department of Pharmaceutical Sciences</t>
+  </si>
+  <si>
+    <t>Klingelbergstrasse 50</t>
+  </si>
+  <si>
+    <t>Swiss Association of Obstetric Anaesthesia (SAOA) Basel</t>
+  </si>
+  <si>
+    <t>Schweizerische Neurologische Gesellschaft SNG Basel</t>
+  </si>
+  <si>
+    <t>Münsterberg 1</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Intensivmedizin SGI Basel</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Oto-Rhino-Laryngologie, Hals- und Gesichtschirurgie</t>
+  </si>
+  <si>
+    <t>Swiss Federation of Clinical Neurosciences SFCNS</t>
+  </si>
+  <si>
+    <t>Inselspital, Universitätsklinik für Neurologie</t>
+  </si>
+  <si>
+    <t>Freiburgstrasse</t>
+  </si>
+  <si>
+    <t>Inselspital, Universitätsklinik für Hämatologie und Hämatologisches Zentrallabor</t>
+  </si>
+  <si>
+    <t>Inselspital, Universitätsklinik für Rheumatologie, Immunologie und Allergologie (RIA)</t>
+  </si>
+  <si>
+    <t>Inselspital, Universitätsklinik für Anästhesiologie und Schmerztherapie</t>
+  </si>
+  <si>
+    <t>Inselspital, Universitäres Notfallzentrum</t>
+  </si>
+  <si>
+    <t>Universität Bern, Institut für Pharmakologie</t>
+  </si>
+  <si>
+    <t>Universität Bern, Departement für Chemie und Biochemie</t>
+  </si>
+  <si>
+    <t>Freienstrasse 3</t>
+  </si>
+  <si>
+    <t>Interregionale Blutspende SRK AG</t>
+  </si>
+  <si>
+    <t>Murtenstrasse 133</t>
+  </si>
+  <si>
+    <t>GSASA Schweizerischer Verein der Amts- und Spitalapotheker</t>
+  </si>
+  <si>
+    <t>Geschäftsstelle</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Pneumologie</t>
+  </si>
+  <si>
+    <t>Chutzenstrasse 10</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Kardiologie</t>
+  </si>
+  <si>
+    <t>Dufourstrasse 30</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Herz- und thorakele Gefässchirurgie</t>
+  </si>
+  <si>
+    <t>Münstergasse 72</t>
+  </si>
+  <si>
+    <t>Schweizer Kinderkrebsregister</t>
+  </si>
+  <si>
+    <t>Finkenhubelweg 11</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Cystische Fibrose</t>
+  </si>
+  <si>
+    <t>Altenbergstrasse 29</t>
+  </si>
+  <si>
+    <t>Kantonsspital Graubünden</t>
+  </si>
+  <si>
+    <t>Chur</t>
+  </si>
+  <si>
+    <t>Loestrasse 170</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Pädiatrie</t>
+  </si>
+  <si>
+    <t>Fribourg</t>
+  </si>
+  <si>
+    <t>Postfach 1380</t>
+  </si>
+  <si>
+    <t>Hôpitaux Universitaires de Genève (HUG), Pharmacie</t>
+  </si>
+  <si>
+    <t>Rue Gabrielle-Perret-Gentil 4</t>
+  </si>
+  <si>
+    <t>Hôpitaux Universitaires de Genève (HUG), Service d'Anesthésiologie</t>
+  </si>
+  <si>
+    <t>Hôpitaux Universitaires de Genève (HUG), Service d'angiologie et d'hémostase</t>
+  </si>
+  <si>
+    <t>Hôpitaux Universitaires de Genève (HUG), Service de Neurologie</t>
+  </si>
+  <si>
+    <t>Hôpitaux Universitaires de Genève (HUG), Service d'immunologie et d'allergologie</t>
+  </si>
+  <si>
+    <t>Groupe des Pneumologues Genevois</t>
+  </si>
+  <si>
+    <t>Rue Hugo de Senger 1</t>
+  </si>
+  <si>
+    <t>Kenes International*</t>
+  </si>
+  <si>
+    <t>Rue François-Versonnex 7</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Vaudois (CHUV), Service d'hématologie</t>
+  </si>
+  <si>
+    <t>Rue du Bugnon 46</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Vaudois (CHUV), Service d'Anesthésiologie</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Vaudois (CHUV), Service de pneumologie</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Vaudois (CHUV), Service d'immunologie et allergie</t>
+  </si>
+  <si>
+    <t>Policlinique Médicale Universitaire, Pharmacie</t>
+  </si>
+  <si>
+    <t>Rue du Bugnon 44</t>
+  </si>
+  <si>
+    <t>Coagulation Latine (COALAT)</t>
+  </si>
+  <si>
+    <t>Association FoROMe</t>
+  </si>
+  <si>
+    <t>Av. Pierre-Decker 2</t>
+  </si>
+  <si>
+    <t>Luzerner Kantonsspital, Klinik für Anästhesie</t>
+  </si>
+  <si>
+    <t>Spitalstrasse</t>
+  </si>
+  <si>
+    <t>Luzerner Kantonsspital</t>
+  </si>
+  <si>
+    <t>AMACTi Associazione Medici Anestesisti Canton Ticino</t>
+  </si>
+  <si>
+    <t>Via Tesserete 48</t>
+  </si>
+  <si>
+    <t>Neurocentro della Svizzera Italiana NSI</t>
+  </si>
+  <si>
+    <t>Ospedale Regionale di Lugano</t>
+  </si>
+  <si>
+    <t>Clinica Luganese, Medicina interne e malattie infettive</t>
+  </si>
+  <si>
+    <t>Via Mocucco 10</t>
+  </si>
+  <si>
+    <t>Centro Pediatrico del Mendrisiotto</t>
+  </si>
+  <si>
+    <t>Via Beroldingen 26</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Hämatologie</t>
+  </si>
+  <si>
+    <t>Münsingen</t>
+  </si>
+  <si>
+    <t>Innerer Geissenweg</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Neuropädiatrie</t>
+  </si>
+  <si>
+    <t>Oberentfelden</t>
+  </si>
+  <si>
+    <t>Blumenweg 13</t>
+  </si>
+  <si>
+    <t>Medinorma Sarl</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Grand Rue 34</t>
+  </si>
+  <si>
+    <t>Kantonsspital St. Gallen, Klinik für Pneumologie und Schlafmedizin</t>
+  </si>
+  <si>
+    <t>Rorschacherstrasse 95</t>
+  </si>
+  <si>
+    <t>Kantonspital St. Gallen, Muskelzentrum / ALS Klinik</t>
+  </si>
+  <si>
+    <t>Rorschacherstrasse 111</t>
+  </si>
+  <si>
+    <t>Frohbergstrasse 3</t>
+  </si>
+  <si>
+    <t>MediService AG</t>
+  </si>
+  <si>
+    <t>Zuchwil</t>
+  </si>
+  <si>
+    <t>Ausserfeldweg 1</t>
+  </si>
+  <si>
+    <t>Universitätsspital Zürich</t>
+  </si>
+  <si>
+    <t>Frauenklinikstrasse 26</t>
+  </si>
+  <si>
+    <t>Universitätsspital Zürich, Institut für Anästhesiologie</t>
+  </si>
+  <si>
+    <t>Rämistrasse 100</t>
+  </si>
+  <si>
+    <t>Universitätskinderspital Zürich, Department Anästhesie</t>
+  </si>
+  <si>
+    <t>Steinwiesstrasse 75</t>
+  </si>
+  <si>
+    <t>Universitätskinderspital Zürich, Department Hämathologie</t>
+  </si>
+  <si>
+    <t>Universitätskinderspital Zürich, Eleonorenstiftung</t>
+  </si>
+  <si>
+    <t>Universitätskinderspital Zürich, Pediatric Emergency Medicine Switzerland (PEMS)</t>
+  </si>
+  <si>
+    <t>Swiss Haemophilia Network</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>csl</t>
+  </si>
+  <si>
+    <t>HICC GmbH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,7 +644,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -670,87 +652,365 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +1051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -810,18 +1070,18 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="3">
         <v>1000</v>
       </c>
-      <c r="L2" s="3" t="n">
-        <f aca="false">SUM(H2:K2)</f>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L41" si="0">SUM(H2:K2)</f>
         <v>1000</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -837,23 +1097,23 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>472.35</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>968.08</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3" t="n">
-        <f aca="false">SUM(H3:K3)</f>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
         <v>1440.43</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -872,18 +1132,18 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>1000</v>
       </c>
-      <c r="L4" s="3" t="n">
-        <f aca="false">SUM(H4:K4)</f>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -899,23 +1159,23 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>472.35</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>943.64</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3" t="n">
-        <f aca="false">SUM(H5:K5)</f>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
         <v>1415.99</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,18 +1194,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3">
         <v>1000</v>
       </c>
-      <c r="L6" s="3" t="n">
-        <f aca="false">SUM(H6:K6)</f>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -964,18 +1224,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3">
         <v>1000</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <f aca="false">SUM(H7:K7)</f>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -993,19 +1253,19 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="n">
-        <f aca="false">SUM(H8:K8)</f>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1021,23 +1281,23 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>212.89</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>2489.66</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="n">
-        <f aca="false">SUM(H9:K9)</f>
-        <v>2702.55</v>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>2702.5499999999997</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1053,23 +1313,23 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>472.33</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>1121.75</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3" t="n">
-        <f aca="false">SUM(H10:K10)</f>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
         <v>1594.08</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1087,19 +1347,19 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>1000</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="3" t="n">
-        <f aca="false">SUM(H11:K11)</f>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1118,18 +1378,18 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="3">
         <v>146</v>
       </c>
-      <c r="L12" s="3" t="n">
-        <f aca="false">SUM(H12:K12)</f>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1147,19 +1407,19 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>3000</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3" t="n">
-        <f aca="false">SUM(H13:K13)</f>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1176,22 +1436,22 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>5658.87</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="3">
         <v>24659</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3" t="n">
-        <f aca="false">SUM(H14:K14)</f>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
         <v>30317.87</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1209,19 +1469,19 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3" t="n">
-        <f aca="false">SUM(H15:K15)</f>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1237,23 +1497,23 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>251.25</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="3">
         <v>755.3</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3" t="n">
-        <f aca="false">SUM(H16:K16)</f>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
         <v>1006.55</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1272,18 +1532,18 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="3">
         <v>104</v>
       </c>
-      <c r="L17" s="3" t="n">
-        <f aca="false">SUM(H17:K17)</f>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1299,23 +1559,23 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="3">
         <v>581.9</v>
       </c>
-      <c r="I18" s="3" t="n">
-        <v>1208.35</v>
+      <c r="I18" s="3">
+        <v>1208.3499999999999</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3" t="n">
-        <f aca="false">SUM(H18:K18)</f>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
         <v>1790.25</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1332,20 +1592,20 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="3">
         <v>2425.6</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="n">
-        <f aca="false">SUM(H19:K19)</f>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
         <v>2425.6</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1361,23 +1621,23 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>581.9</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>1537</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3" t="n">
-        <f aca="false">SUM(H20:K20)</f>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
         <v>2118.9</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1393,23 +1653,23 @@
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="3">
         <v>581.9</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3">
         <v>861</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3" t="n">
-        <f aca="false">SUM(H21:K21)</f>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
         <v>1442.9</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1425,21 +1685,21 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="3">
         <v>181.65</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3" t="n">
-        <f aca="false">SUM(H22:K22)</f>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
         <v>181.65</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1455,23 +1715,23 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="3">
         <v>441.4</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="3">
         <v>991.5</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3" t="n">
-        <f aca="false">SUM(H23:K23)</f>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
         <v>1432.9</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1487,23 +1747,23 @@
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="3">
         <v>212.9</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3">
         <v>1908.3</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="n">
-        <f aca="false">SUM(H24:K24)</f>
-        <v>2121.2</v>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>2121.1999999999998</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1519,23 +1779,23 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>491</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>2355.6</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3" t="n">
-        <f aca="false">SUM(H25:K25)</f>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
         <v>2846.6</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1551,27 +1811,27 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="3">
         <v>472.3</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>731.45</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="3">
         <v>179.9</v>
       </c>
-      <c r="L26" s="3" t="n">
-        <f aca="false">SUM(H26:K26)</f>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
         <v>6383.65</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1589,19 +1849,19 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3" t="n">
-        <f aca="false">SUM(H27:K27)</f>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -1617,21 +1877,21 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3" t="n">
-        <v>262.1</v>
+      <c r="H28" s="3">
+        <v>262.10000000000002</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3" t="n">
-        <f aca="false">SUM(H28:K28)</f>
-        <v>262.1</v>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>262.10000000000002</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -1647,23 +1907,23 @@
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="3">
         <v>435.5</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3">
         <v>1482.6</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3" t="n">
-        <f aca="false">SUM(H29:K29)</f>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
         <v>1918.1</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -1679,23 +1939,23 @@
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="3">
         <v>472.33</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="3">
         <v>999.09</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3" t="n">
-        <f aca="false">SUM(H30:K30)</f>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
         <v>1471.42</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1711,23 +1971,23 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="3">
         <v>472.33</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="3">
         <v>999.09</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3" t="n">
-        <f aca="false">SUM(H31:K31)</f>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
         <v>1471.42</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -1745,19 +2005,19 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3" t="n">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="3" t="n">
-        <f aca="false">SUM(H32:K32)</f>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1773,23 +2033,23 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="3">
         <v>472.3</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="3">
         <v>802.5</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3" t="n">
-        <f aca="false">SUM(H33:K33)</f>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
         <v>1274.8</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1805,23 +2065,23 @@
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3" t="n">
+      <c r="H34" s="3">
         <v>435.5</v>
       </c>
-      <c r="I34" s="3" t="n">
-        <v>1196.9</v>
+      <c r="I34" s="3">
+        <v>1196.9000000000001</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3" t="n">
-        <f aca="false">SUM(H34:K34)</f>
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
         <v>1632.4</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1837,23 +2097,23 @@
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="3">
         <v>472.35</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="3">
         <v>1053.75</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3" t="n">
-        <f aca="false">SUM(H35:K35)</f>
+      <c r="L35" s="3">
+        <f t="shared" si="0"/>
         <v>1526.1</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -1869,23 +2129,23 @@
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="3">
         <v>464</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="3">
         <v>2354.1</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3" t="n">
-        <f aca="false">SUM(H36:K36)</f>
+      <c r="L36" s="3">
+        <f t="shared" si="0"/>
         <v>2818.1</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -1902,19 +2162,19 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3" t="n">
+      <c r="J37" s="3">
         <v>2000</v>
       </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="n">
-        <f aca="false">SUM(H37:K37)</f>
+      <c r="L37" s="3">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
@@ -1931,19 +2191,19 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3" t="n">
+      <c r="J38" s="3">
         <v>1000</v>
       </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="3" t="n">
-        <f aca="false">SUM(H38:K38)</f>
+      <c r="L38" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -1958,23 +2218,23 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="3">
         <v>533.34</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="3">
         <v>988.75</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3" t="n">
-        <f aca="false">SUM(H39:K39)</f>
-        <v>1522.09</v>
+      <c r="L39" s="3">
+        <f t="shared" si="0"/>
+        <v>1522.0900000000001</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -1991,19 +2251,19 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3" t="n">
+      <c r="J40" s="3">
         <v>1000</v>
       </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="3" t="n">
-        <f aca="false">SUM(H40:K40)</f>
+      <c r="L40" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -2018,23 +2278,23 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3" t="n">
-        <v>635.2</v>
-      </c>
-      <c r="I41" s="3" t="n">
+      <c r="H41" s="3">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="I41" s="3">
         <v>2451.35</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3" t="n">
-        <f aca="false">SUM(H41:K41)</f>
+      <c r="L41" s="3">
+        <f t="shared" si="0"/>
         <v>3086.55</v>
       </c>
-      <c r="M41" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -2048,21 +2308,21 @@
         <v>88</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="3">
         <v>1500</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3" t="n">
-        <f aca="false">SUM(F42:K42)</f>
+      <c r="L42" s="3">
+        <f t="shared" ref="L42:L73" si="1">SUM(F42:K42)</f>
         <v>1500</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:13" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
@@ -2076,21 +2336,21 @@
         <v>91</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3" t="n">
-        <f aca="false">SUM(F43:K43)</f>
+      <c r="L43" s="3">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:13" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -2103,24 +2363,24 @@
       <c r="D44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="3">
         <v>60000</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3" t="n">
-        <f aca="false">SUM(F44:K44)</f>
+      <c r="L44" s="3">
+        <f t="shared" si="1"/>
         <v>61000</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
@@ -2134,21 +2394,21 @@
         <v>95</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3" t="n">
-        <f aca="false">SUM(F45:K45)</f>
+      <c r="L45" s="3">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -2162,21 +2422,21 @@
         <v>97</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3" t="n">
-        <f aca="false">SUM(F46:K46)</f>
+      <c r="L46" s="3">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>98</v>
       </c>
@@ -2190,21 +2450,21 @@
         <v>21</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3" t="n">
-        <f aca="false">SUM(F47:K47)</f>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>99</v>
       </c>
@@ -2218,21 +2478,21 @@
         <v>100</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="3">
         <v>18000</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3" t="n">
-        <f aca="false">SUM(F48:K48)</f>
+      <c r="L48" s="3">
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:13" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
@@ -2246,21 +2506,21 @@
         <v>100</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="3">
         <v>5310</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3" t="n">
-        <f aca="false">SUM(F49:K49)</f>
+      <c r="L49" s="3">
+        <f t="shared" si="1"/>
         <v>5310</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:13" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -2274,21 +2534,21 @@
         <v>100</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="3">
         <v>10500</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3" t="n">
-        <f aca="false">SUM(F50:K50)</f>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:13" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
@@ -2302,21 +2562,21 @@
         <v>100</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="3">
         <v>13140</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3" t="n">
-        <f aca="false">SUM(F51:K51)</f>
+      <c r="L51" s="3">
+        <f t="shared" si="1"/>
         <v>13140</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:13" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2333,18 +2593,18 @@
       <c r="G52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="n">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3" t="n">
-        <f aca="false">SUM(F52:K52)</f>
+      <c r="L52" s="3">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:13" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -2357,22 +2617,22 @@
       <c r="D53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="3" t="n">
+      <c r="F53" s="3">
         <v>22000</v>
       </c>
       <c r="G53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="n">
-        <f aca="false">SUM(F53:K53)</f>
+      <c r="L53" s="3">
+        <f t="shared" si="1"/>
         <v>22000</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:13" s="2" customFormat="1">
       <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
@@ -2386,21 +2646,21 @@
         <v>105</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="3" t="n">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="n">
-        <f aca="false">SUM(F54:K54)</f>
+      <c r="L54" s="3">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:13" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -2414,21 +2674,21 @@
         <v>105</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="n">
+      <c r="G55" s="3">
         <v>1000</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="n">
-        <f aca="false">SUM(F55:K55)</f>
+      <c r="L55" s="3">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:13" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -2442,21 +2702,21 @@
         <v>105</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="3">
         <v>6944.45</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3" t="n">
-        <f aca="false">SUM(F56:K56)</f>
+      <c r="L56" s="3">
+        <f t="shared" si="1"/>
         <v>6944.45</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:13" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -2470,21 +2730,21 @@
         <v>105</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="3" t="n">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="n">
-        <f aca="false">SUM(F57:K57)</f>
+      <c r="L57" s="3">
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>111</v>
       </c>
@@ -2498,21 +2758,21 @@
         <v>112</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="3" t="n">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3" t="n">
-        <f aca="false">SUM(F58:K58)</f>
+      <c r="L58" s="3">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:13" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
@@ -2526,21 +2786,21 @@
         <v>114</v>
       </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3" t="n">
-        <f aca="false">SUM(F59:K59)</f>
+      <c r="L59" s="3">
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:13" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -2553,26 +2813,26 @@
       <c r="D60" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" s="3">
         <v>15000</v>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" s="3">
         <v>22900</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3" t="n">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3" t="n">
-        <f aca="false">SUM(F60:K60)</f>
+      <c r="L60" s="3">
+        <f t="shared" si="1"/>
         <v>41300</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:13" s="2" customFormat="1">
       <c r="A61" s="2" t="s">
         <v>117</v>
       </c>
@@ -2586,21 +2846,21 @@
         <v>118</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="3">
         <v>1530</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3" t="n">
-        <f aca="false">SUM(F61:K61)</f>
+      <c r="L61" s="3">
+        <f t="shared" si="1"/>
         <v>1530</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:13" s="2" customFormat="1">
       <c r="A62" s="2" t="s">
         <v>119</v>
       </c>
@@ -2614,21 +2874,21 @@
         <v>120</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="3" t="n">
+      <c r="G62" s="3">
         <v>1530</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3" t="n">
-        <f aca="false">SUM(F62:K62)</f>
+      <c r="L62" s="3">
+        <f t="shared" si="1"/>
         <v>1530</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:13" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
@@ -2642,21 +2902,21 @@
         <v>122</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="3" t="n">
+      <c r="G63" s="3">
         <v>1530</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3" t="n">
-        <f aca="false">SUM(F63:K63)</f>
+      <c r="L63" s="3">
+        <f t="shared" si="1"/>
         <v>1530</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:13" s="2" customFormat="1">
       <c r="A64" s="2" t="s">
         <v>123</v>
       </c>
@@ -2669,22 +2929,22 @@
       <c r="D64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="F64" s="3">
         <v>2000</v>
       </c>
       <c r="G64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3" t="n">
-        <f aca="false">SUM(F64:K64)</f>
+      <c r="L64" s="3">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:13" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
@@ -2698,21 +2958,21 @@
         <v>126</v>
       </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="3" t="n">
+      <c r="G65" s="3">
         <v>1000</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3" t="n">
-        <f aca="false">SUM(F65:K65)</f>
+      <c r="L65" s="3">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:13" s="2" customFormat="1">
       <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
@@ -2726,21 +2986,21 @@
         <v>129</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="3" t="n">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3" t="n">
-        <f aca="false">SUM(F66:K66)</f>
+      <c r="L66" s="3">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:13" s="2" customFormat="1">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -2754,21 +3014,21 @@
         <v>132</v>
       </c>
       <c r="F67" s="3"/>
-      <c r="G67" s="3" t="n">
+      <c r="G67" s="3">
         <v>6120</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3" t="n">
-        <f aca="false">SUM(F67:K67)</f>
+      <c r="L67" s="3">
+        <f t="shared" si="1"/>
         <v>6120</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:13" s="2" customFormat="1">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -2781,22 +3041,22 @@
       <c r="D68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" s="3">
         <v>35000</v>
       </c>
       <c r="G68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3" t="n">
-        <f aca="false">SUM(F68:K68)</f>
+      <c r="L68" s="3">
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:13" s="2" customFormat="1">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -2810,21 +3070,21 @@
         <v>134</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="3">
         <v>5800</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3" t="n">
-        <f aca="false">SUM(F69:K69)</f>
+      <c r="L69" s="3">
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
         <v>136</v>
       </c>
@@ -2838,7 +3098,7 @@
         <v>134</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="3" t="n">
+      <c r="F70" s="3">
         <v>14000</v>
       </c>
       <c r="G70" s="3"/>
@@ -2846,15 +3106,15 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3" t="n">
-        <f aca="false">SUM(F70:K70)</f>
+      <c r="L70" s="3">
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
         <v>137</v>
       </c>
@@ -2869,26 +3129,26 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3" t="n">
+      <c r="G71" s="3">
         <v>2500</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3" t="n">
-        <f aca="false">SUM(F71:K71)</f>
+      <c r="L71" s="3">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:13">
       <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2898,22 +3158,22 @@
         <v>134</v>
       </c>
       <c r="F72" s="3"/>
-      <c r="G72" s="3" t="n">
+      <c r="G72" s="3">
         <v>11950</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3" t="n">
-        <f aca="false">SUM(F72:K72)</f>
+      <c r="L72" s="3">
+        <f t="shared" si="1"/>
         <v>11950</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:13" s="2" customFormat="1">
       <c r="A73" s="2" t="s">
         <v>139</v>
       </c>
@@ -2927,22 +3187,22 @@
         <v>140</v>
       </c>
       <c r="F73" s="3"/>
-      <c r="G73" s="3" t="n">
+      <c r="G73" s="3">
         <v>2000</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3" t="n">
-        <f aca="false">SUM(F73:K73)</f>
+      <c r="L73" s="3">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
         <v>141</v>
       </c>
@@ -2955,7 +3215,7 @@
       <c r="D74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="F74" s="3">
         <v>12930</v>
       </c>
       <c r="G74" s="3"/>
@@ -2963,15 +3223,15 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3" t="n">
-        <f aca="false">SUM(F74:K74)</f>
+      <c r="L74" s="3">
+        <f t="shared" ref="L74:L105" si="2">SUM(F74:K74)</f>
         <v>12930</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
@@ -2985,22 +3245,22 @@
         <v>144</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="3" t="n">
+      <c r="G75" s="3">
         <v>3000</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3" t="n">
-        <f aca="false">SUM(F75:K75)</f>
+      <c r="L75" s="3">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
@@ -3014,22 +3274,22 @@
         <v>144</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="3" t="n">
+      <c r="G76" s="3">
         <v>5000</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="3" t="n">
-        <f aca="false">SUM(F76:K76)</f>
+      <c r="L76" s="3">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
         <v>146</v>
       </c>
@@ -3046,19 +3306,19 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3" t="n">
+      <c r="J77" s="3">
         <v>1000</v>
       </c>
       <c r="K77" s="3"/>
-      <c r="L77" s="3" t="n">
-        <f aca="false">SUM(F77:K77)</f>
+      <c r="L77" s="3">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
         <v>147</v>
       </c>
@@ -3072,22 +3332,22 @@
         <v>144</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="3" t="n">
+      <c r="G78" s="3">
         <v>8431</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="3" t="n">
-        <f aca="false">SUM(F78:K78)</f>
+      <c r="L78" s="3">
+        <f t="shared" si="2"/>
         <v>8431</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
         <v>148</v>
       </c>
@@ -3104,19 +3364,19 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3" t="n">
+      <c r="J79" s="3">
         <v>2090</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3" t="n">
-        <f aca="false">SUM(F79:K79)</f>
+      <c r="L79" s="3">
+        <f t="shared" si="2"/>
         <v>2090</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:13">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
@@ -3130,24 +3390,24 @@
         <v>144</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="3">
         <v>32000</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3" t="n">
+      <c r="J80" s="3">
         <v>1500</v>
       </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3" t="n">
-        <f aca="false">SUM(F80:K80)</f>
+      <c r="L80" s="3">
+        <f t="shared" si="2"/>
         <v>33500</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:13">
       <c r="A81" s="2" t="s">
         <v>151</v>
       </c>
@@ -3161,22 +3421,22 @@
         <v>152</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="G81" s="3" t="n">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="3" t="n">
-        <f aca="false">SUM(F81:K81)</f>
+      <c r="L81" s="3">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:13">
       <c r="A82" s="2" t="s">
         <v>153</v>
       </c>
@@ -3190,22 +3450,22 @@
         <v>154</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="3" t="n">
+      <c r="G82" s="3">
         <v>5000</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="3" t="n">
-        <f aca="false">SUM(F82:K82)</f>
+      <c r="L82" s="3">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
@@ -3222,19 +3482,19 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="3" t="n">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
       <c r="K83" s="3"/>
-      <c r="L83" s="3" t="n">
-        <f aca="false">SUM(F83:K83)</f>
+      <c r="L83" s="3">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
         <v>156</v>
       </c>
@@ -3248,22 +3508,22 @@
         <v>157</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="3" t="n">
+      <c r="G84" s="3">
         <v>3500</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3" t="n">
-        <f aca="false">SUM(F84:K84)</f>
+      <c r="L84" s="3">
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
         <v>158</v>
       </c>
@@ -3277,22 +3537,22 @@
         <v>159</v>
       </c>
       <c r="F85" s="3"/>
-      <c r="G85" s="3" t="n">
+      <c r="G85" s="3">
         <v>2500</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3" t="n">
-        <f aca="false">SUM(F85:K85)</f>
+      <c r="L85" s="3">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
         <v>160</v>
       </c>
@@ -3306,22 +3566,22 @@
         <v>161</v>
       </c>
       <c r="F86" s="3"/>
-      <c r="G86" s="3" t="n">
+      <c r="G86" s="3">
         <v>1500</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="3" t="n">
-        <f aca="false">SUM(F86:K86)</f>
+      <c r="L86" s="3">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
         <v>162</v>
       </c>
@@ -3335,22 +3595,22 @@
         <v>163</v>
       </c>
       <c r="F87" s="3"/>
-      <c r="G87" s="3" t="n">
+      <c r="G87" s="3">
         <v>1500</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="3" t="n">
-        <f aca="false">SUM(F87:K87)</f>
+      <c r="L87" s="3">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
         <v>164</v>
       </c>
@@ -3364,22 +3624,22 @@
         <v>166</v>
       </c>
       <c r="F88" s="3"/>
-      <c r="G88" s="3" t="n">
+      <c r="G88" s="3">
         <v>500</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="3" t="n">
-        <f aca="false">SUM(F88:K88)</f>
+      <c r="L88" s="3">
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
         <v>167</v>
       </c>
@@ -3393,22 +3653,22 @@
         <v>169</v>
       </c>
       <c r="F89" s="3"/>
-      <c r="G89" s="3" t="n">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="3" t="n">
-        <f aca="false">SUM(F89:K89)</f>
+      <c r="L89" s="3">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
         <v>170</v>
       </c>
@@ -3422,22 +3682,22 @@
         <v>172</v>
       </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="3" t="n">
+      <c r="G90" s="3">
         <v>1500</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="3" t="n">
-        <f aca="false">SUM(F90:K90)</f>
+      <c r="L90" s="3">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
         <v>173</v>
       </c>
@@ -3451,22 +3711,22 @@
         <v>174</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="3" t="n">
+      <c r="G91" s="3">
         <v>5000</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="3" t="n">
-        <f aca="false">SUM(F91:K91)</f>
+      <c r="L91" s="3">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
         <v>175</v>
       </c>
@@ -3480,24 +3740,24 @@
         <v>176</v>
       </c>
       <c r="F92" s="3"/>
-      <c r="G92" s="3" t="n">
+      <c r="G92" s="3">
         <v>6000</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="3" t="n">
-        <f aca="false">SUM(F92:K92)</f>
+      <c r="L92" s="3">
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>65</v>
@@ -3506,56 +3766,56 @@
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F93" s="3"/>
-      <c r="G93" s="3" t="n">
+      <c r="G93" s="3">
         <v>5500</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3" t="n">
-        <f aca="false">SUM(F93:K93)</f>
+      <c r="L93" s="3">
+        <f t="shared" si="2"/>
         <v>5500</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="3" t="n">
+      <c r="J94" s="3">
         <v>19630</v>
       </c>
       <c r="K94" s="3"/>
-      <c r="L94" s="3" t="n">
-        <f aca="false">SUM(F94:K94)</f>
+      <c r="L94" s="3">
+        <f t="shared" si="2"/>
         <v>19630</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
@@ -3564,9 +3824,9 @@
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="F95" s="3">
         <v>1000</v>
       </c>
       <c r="G95" s="3"/>
@@ -3574,17 +3834,17 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="3" t="n">
-        <f aca="false">SUM(F95:K95)</f>
+      <c r="L95" s="3">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>71</v>
@@ -3593,31 +3853,31 @@
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F96" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="F96" s="3">
         <v>100000</v>
       </c>
-      <c r="G96" s="3" t="n">
+      <c r="G96" s="3">
         <v>4500</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="3" t="n">
+      <c r="J96" s="3">
         <v>1500</v>
       </c>
       <c r="K96" s="3"/>
-      <c r="L96" s="3" t="n">
-        <f aca="false">SUM(F96:K96)</f>
+      <c r="L96" s="3">
+        <f t="shared" si="2"/>
         <v>106000</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>71</v>
@@ -3626,27 +3886,27 @@
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F97" s="3"/>
-      <c r="G97" s="3" t="n">
+      <c r="G97" s="3">
         <v>900</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3" t="n">
-        <f aca="false">SUM(F97:K97)</f>
+      <c r="L97" s="3">
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>71</v>
@@ -3655,9 +3915,9 @@
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F98" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="F98" s="3">
         <v>26088</v>
       </c>
       <c r="G98" s="3"/>
@@ -3665,17 +3925,17 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="3" t="n">
-        <f aca="false">SUM(F98:K98)</f>
+      <c r="L98" s="3">
+        <f t="shared" si="2"/>
         <v>26088</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>71</v>
@@ -3684,29 +3944,29 @@
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F99" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="F99" s="3">
         <v>50480</v>
       </c>
-      <c r="G99" s="3" t="n">
+      <c r="G99" s="3">
         <v>2000</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="3" t="n">
-        <f aca="false">SUM(F99:K99)</f>
+      <c r="L99" s="3">
+        <f t="shared" si="2"/>
         <v>52480</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>71</v>
@@ -3715,27 +3975,27 @@
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F100" s="3"/>
-      <c r="G100" s="3" t="n">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="3" t="n">
-        <f aca="false">SUM(F100:K100)</f>
+      <c r="L100" s="3">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>71</v>
@@ -3744,20 +4004,20 @@
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="G101" s="3" t="n">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="3" t="n">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3" t="n">
-        <f aca="false">SUM(F101:K101)</f>
+      <c r="L101" s="3">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="M101" s="2" t="s">
@@ -3765,156 +4025,153 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.61"/>
+    <col min="1" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>2016</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>472.33</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B3" s="2">
         <v>2016</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>3131.9</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B4" s="2">
         <v>2016</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>1436.04</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B5" s="2">
         <v>2016</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>20000</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>1.67</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>